--- a/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
+++ b/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
@@ -525,7 +525,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -579,7 +579,7 @@
         <v>60</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="E3">
         <v>90</v>
@@ -856,7 +856,7 @@
         <v>20</v>
       </c>
       <c r="H19">
-        <v>25</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -868,10 +868,10 @@
       </c>
       <c r="C20" s="3"/>
       <c r="G20">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H20">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -883,10 +883,10 @@
       </c>
       <c r="C21" s="3"/>
       <c r="G21">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H21">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -897,8 +897,11 @@
         <v>37</v>
       </c>
       <c r="C22" s="2"/>
+      <c r="G22">
+        <v>8</v>
+      </c>
       <c r="H22">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
+++ b/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>Beam Name</t>
   </si>
@@ -119,9 +119,6 @@
     <t>Vacuum Ultraviolet</t>
   </si>
   <si>
-    <t>Extreme Ultraviolet</t>
-  </si>
-  <si>
     <t>110 nm</t>
   </si>
   <si>
@@ -140,15 +137,6 @@
     <t>10 pm</t>
   </si>
   <si>
-    <t>100 pm</t>
-  </si>
-  <si>
-    <t>300 pm</t>
-  </si>
-  <si>
-    <t>1000 pm</t>
-  </si>
-  <si>
     <t>11 μm</t>
   </si>
   <si>
@@ -168,6 +156,30 @@
   </si>
   <si>
     <t>specializedScienceTech</t>
+  </si>
+  <si>
+    <t>1 nm</t>
+  </si>
+  <si>
+    <t>0,3 nm</t>
+  </si>
+  <si>
+    <t>Middle Soft X-ray</t>
+  </si>
+  <si>
+    <t>4 nm</t>
+  </si>
+  <si>
+    <t>Far Extreme Ultraviolet</t>
+  </si>
+  <si>
+    <t>35 nm</t>
+  </si>
+  <si>
+    <t>Near Extreme Ultraviolet</t>
+  </si>
+  <si>
+    <t>0,1 nm</t>
   </si>
 </sst>
 </file>
@@ -522,10 +534,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +562,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="C2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -562,10 +574,10 @@
         <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="H2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -641,7 +653,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="C7">
         <v>45</v>
@@ -658,7 +670,7 @@
         <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -675,7 +687,7 @@
         <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9">
         <v>30</v>
@@ -794,10 +806,10 @@
         <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E16">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="F16">
         <v>30</v>
@@ -808,99 +820,133 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
-        <v>33</v>
+        <v>49</v>
       </c>
       <c r="E17">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F17">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G17">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C18" s="3"/>
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>32</v>
+      </c>
+      <c r="E18">
+        <v>15</v>
+      </c>
       <c r="F18">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="G18">
-        <v>26</v>
-      </c>
-      <c r="H18">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-      <c r="B19" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C19" s="3"/>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
       <c r="F19">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="G19">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H19">
-        <v>26</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C20" s="3"/>
+      <c r="F20">
+        <v>19</v>
+      </c>
       <c r="G20">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="H20">
-        <v>22</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>2</v>
+        <v>34</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C21" s="3"/>
+      <c r="F21">
+        <v>15</v>
+      </c>
       <c r="G21">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="H21">
-        <v>17</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="G22">
+        <v>16</v>
+      </c>
+      <c r="H22">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="G23">
+        <v>12</v>
+      </c>
+      <c r="H23">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="G22">
+      <c r="B24" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="2"/>
+      <c r="G24">
         <v>8</v>
       </c>
-      <c r="H22">
+      <c r="H24">
         <v>12</v>
       </c>
     </row>

--- a/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
+++ b/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -547,8 +547,8 @@
     <col min="3" max="3" width="26.28515625" customWidth="1"/>
     <col min="4" max="4" width="21.28515625" customWidth="1"/>
     <col min="5" max="5" width="20.28515625" customWidth="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1"/>
-    <col min="7" max="7" width="25.42578125" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1"/>
     <col min="8" max="8" width="22" customWidth="1"/>
   </cols>
   <sheetData>
@@ -757,13 +757,13 @@
       <c r="B13" t="s">
         <v>25</v>
       </c>
+      <c r="C13">
+        <v>17</v>
+      </c>
       <c r="D13">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E13">
-        <v>45</v>
-      </c>
-      <c r="F13">
         <v>53</v>
       </c>
     </row>
@@ -774,13 +774,13 @@
       <c r="B14" t="s">
         <v>27</v>
       </c>
+      <c r="C14">
+        <v>14</v>
+      </c>
       <c r="D14">
-        <v>25</v>
+        <v>32</v>
       </c>
       <c r="E14">
-        <v>38</v>
-      </c>
-      <c r="F14">
         <v>50</v>
       </c>
     </row>
@@ -791,14 +791,14 @@
       <c r="B15" t="s">
         <v>29</v>
       </c>
+      <c r="C15">
+        <v>10</v>
+      </c>
       <c r="D15">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="E15">
-        <v>32</v>
-      </c>
-      <c r="F15">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
@@ -808,14 +808,14 @@
       <c r="B16" t="s">
         <v>31</v>
       </c>
+      <c r="D16">
+        <v>23</v>
+      </c>
       <c r="E16">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F16">
-        <v>30</v>
-      </c>
-      <c r="G16">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
@@ -825,14 +825,14 @@
       <c r="B17" t="s">
         <v>49</v>
       </c>
+      <c r="D17">
+        <v>16</v>
+      </c>
       <c r="E17">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="F17">
-        <v>28</v>
-      </c>
-      <c r="G17">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
@@ -842,14 +842,14 @@
       <c r="B18" t="s">
         <v>32</v>
       </c>
+      <c r="D18">
+        <v>10</v>
+      </c>
       <c r="E18">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="F18">
-        <v>25</v>
-      </c>
-      <c r="G18">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
@@ -859,14 +859,14 @@
       <c r="B19" t="s">
         <v>47</v>
       </c>
+      <c r="E19">
+        <v>20</v>
+      </c>
       <c r="F19">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="G19">
-        <v>28</v>
-      </c>
-      <c r="H19">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.25">
@@ -877,14 +877,14 @@
         <v>44</v>
       </c>
       <c r="C20" s="3"/>
+      <c r="E20">
+        <v>15</v>
+      </c>
       <c r="F20">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="G20">
-        <v>24</v>
-      </c>
-      <c r="H20">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -895,14 +895,14 @@
         <v>45</v>
       </c>
       <c r="C21" s="3"/>
+      <c r="E21">
+        <v>10</v>
+      </c>
       <c r="F21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G21">
-        <v>20</v>
-      </c>
-      <c r="H21">
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
@@ -913,11 +913,14 @@
         <v>51</v>
       </c>
       <c r="C22" s="3"/>
+      <c r="F22">
+        <v>16</v>
+      </c>
       <c r="G22">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H22">
-        <v>22</v>
+        <v>26</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
@@ -928,11 +931,14 @@
         <v>42</v>
       </c>
       <c r="C23" s="3"/>
+      <c r="F23">
+        <v>13</v>
+      </c>
       <c r="G23">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="H23">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -943,11 +949,14 @@
         <v>36</v>
       </c>
       <c r="C24" s="2"/>
+      <c r="F24">
+        <v>10</v>
+      </c>
       <c r="G24">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="H24">
-        <v>12</v>
+        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
+++ b/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
@@ -537,7 +537,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -829,7 +829,7 @@
         <v>16</v>
       </c>
       <c r="E17">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="F17">
         <v>41</v>
@@ -846,7 +846,7 @@
         <v>10</v>
       </c>
       <c r="E18">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F18">
         <v>38</v>

--- a/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
+++ b/GameData/WarpPlugin/Parts/Microwave/BeamGenerators/FreeElectronLaser/KSPIE Brandwidths.xlsx
@@ -1,20 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SSW\Documents\GitHub\KSP-Interstellar-Extended\GameData\WarpPlugin\Parts\Microwave\BeamGenerators\FreeElectronLaser\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28740" windowHeight="12705"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -185,7 +180,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -526,7 +521,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -537,7 +532,7 @@
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,7 +756,7 @@
         <v>17</v>
       </c>
       <c r="D13">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E13">
         <v>53</v>
@@ -778,7 +773,7 @@
         <v>14</v>
       </c>
       <c r="D14">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E14">
         <v>50</v>
@@ -795,7 +790,7 @@
         <v>10</v>
       </c>
       <c r="D15">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E15">
         <v>47</v>
@@ -809,7 +804,7 @@
         <v>31</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E16">
         <v>34</v>
@@ -826,7 +821,7 @@
         <v>49</v>
       </c>
       <c r="D17">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E17">
         <v>28</v>
